--- a/data/model_results.xlsx
+++ b/data/model_results.xlsx
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="AF4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="AF8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="AF9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="AF10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="AF12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="AF15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="AF21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="AF27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="AF32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4449,7 +4449,7 @@
         </is>
       </c>
       <c r="AF35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -5139,7 +5139,7 @@
         </is>
       </c>
       <c r="AF41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="AF42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="AF43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="AF45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="AF47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
